--- a/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled.xlsx
+++ b/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_Decoupled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Decoupled_DW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF82B2F5-3BB5-4BB6-AD5F-3E27A92F0AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C51E01-0A33-41B0-8556-38D0E3F2A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2700" windowWidth="21600" windowHeight="11295" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="DWDecoupled_Achilles_f" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Roll</t>
+  </si>
+  <si>
+    <t>Upper Arm to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_1Rev</t>
+  </si>
+  <si>
+    <t>Lower Arm to Subframe</t>
   </si>
 </sst>
 </file>
@@ -272,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,11 +320,21 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -643,10 +662,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,13 +1400,50 @@
         <v>0.22806699999999999</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:C35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A42">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled.xlsx
+++ b/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Decoupled_DW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C51E01-0A33-41B0-8556-38D0E3F2A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BEE14-62D1-4473-9C00-11299570B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="DWDecoupled_Achilles_f" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -111,15 +111,9 @@
     <t>TrackRod</t>
   </si>
   <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>Shock</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>mPiston</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -190,6 +181,15 @@
   </si>
   <si>
     <t>Lower Arm to Subframe</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +262,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -315,19 +309,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -351,6 +361,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -664,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +690,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,7 +736,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,15 +750,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
@@ -762,7 +777,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
@@ -815,10 +830,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
@@ -837,7 +852,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
@@ -919,13 +934,13 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="24">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="23">
         <v>0.23322999999999999</v>
       </c>
     </row>
@@ -1036,17 +1051,20 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="22">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="22">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="22">
         <v>0.11927</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,57 +1103,65 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="19">
+      <c r="E24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>0.45</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="19">
+      <c r="E25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <f>-0.3</f>
         <v>-0.3</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>0.45</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1150,7 +1176,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1164,50 +1190,62 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="19">
+      <c r="E28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="17">
         <v>0.05</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <f>0.275</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="17">
         <v>0.47499999999999998</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="19">
+      <c r="E29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="17">
         <v>0.05</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <f>-0.275</f>
         <v>-0.27500000000000002</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <v>0.32500000000000001</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1222,7 +1260,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1235,82 +1273,103 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21">
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19">
         <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21">
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21">
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21">
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19">
         <f>-0.15</f>
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" t="s">
@@ -1329,10 +1388,10 @@
         <v>0.17788999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
@@ -1349,7 +1408,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>10</v>
@@ -1360,16 +1419,16 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="18">
+      <c r="H38" s="23">
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" t="s">
@@ -1385,7 +1444,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -1396,54 +1455,64 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="18">
+      <c r="H40" s="23">
         <v>0.22806699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="22" t="s">
-        <v>50</v>
+      <c r="H42" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:C35">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A42">
+  <conditionalFormatting sqref="J32:J35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
